--- a/artfynd/A 13111-2022.xlsx
+++ b/artfynd/A 13111-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY34"/>
+  <dimension ref="A1:AY35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4663,6 +4663,135 @@
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>111966065</v>
+      </c>
+      <c r="B35" t="n">
+        <v>83148</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>3518</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Smal svampklubba</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Tolypocladium ophioglossoides</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Ehrh. ex J.F.Gmel.:Fr.) Quandt, Kepler &amp; Spatafora</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Angertuvan, öster om, Vg</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>338285.5070198396</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6433442.904015562</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Ale</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Västergötland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Skepplanda</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Växte vid största stigen som går vid foten av Angertuvans östra sluttning.</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Thomas Grönlund</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Thomas Grönlund</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 13111-2022.xlsx
+++ b/artfynd/A 13111-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY35"/>
+  <dimension ref="A1:AY36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4792,6 +4792,140 @@
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>111966228</v>
+      </c>
+      <c r="B36" t="n">
+        <v>89183</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>3215</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Craterellus lutescens</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Angertuvan, öster om, Vg</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>338356.4103134849</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6433540.273063039</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Ale</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Västergötland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Skepplanda</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>I våtmarken öster om Angertuvan. Ca 35 m söder om hyggeskanten.</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>Sumpskog</t>
+        </is>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Thomas Grönlund</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Thomas Grönlund</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 13111-2022.xlsx
+++ b/artfynd/A 13111-2022.xlsx
@@ -4665,10 +4665,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111966065</v>
+        <v>111966228</v>
       </c>
       <c r="B35" t="n">
-        <v>83148</v>
+        <v>89183</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4681,26 +4681,26 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3518</v>
+        <v>3215</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Smal svampklubba</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Tolypocladium ophioglossoides</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ehrh. ex J.F.Gmel.:Fr.) Quandt, Kepler &amp; Spatafora</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4716,10 +4716,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>338285.5070198396</v>
+        <v>338356.4103134849</v>
       </c>
       <c r="R35" t="n">
-        <v>6433442.904015562</v>
+        <v>6433540.273063039</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Växte vid största stigen som går vid foten av Angertuvans östra sluttning.</t>
+          <t>I våtmarken öster om Angertuvan. Ca 35 m söder om hyggeskanten.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4778,6 +4778,11 @@
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>Sumpskog</t>
+        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4794,10 +4799,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111966228</v>
+        <v>111966065</v>
       </c>
       <c r="B36" t="n">
-        <v>89183</v>
+        <v>83148</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4810,26 +4815,26 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3215</v>
+        <v>3518</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Smal svampklubba</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Tolypocladium ophioglossoides</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Ehrh. ex J.F.Gmel.:Fr.) Quandt, Kepler &amp; Spatafora</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4845,10 +4850,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>338356.4103134849</v>
+        <v>338285.5070198396</v>
       </c>
       <c r="R36" t="n">
-        <v>6433540.273063039</v>
+        <v>6433442.904015562</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4895,7 +4900,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>I våtmarken öster om Angertuvan. Ca 35 m söder om hyggeskanten.</t>
+          <t>Växte vid största stigen som går vid foten av Angertuvans östra sluttning.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4907,11 +4912,6 @@
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>Sumpskog</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">

--- a/artfynd/A 13111-2022.xlsx
+++ b/artfynd/A 13111-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY36"/>
+  <dimension ref="A1:AY47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4665,10 +4665,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111966228</v>
+        <v>111966065</v>
       </c>
       <c r="B35" t="n">
-        <v>89183</v>
+        <v>83148</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4681,26 +4681,26 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3215</v>
+        <v>3518</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Smal svampklubba</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Tolypocladium ophioglossoides</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Ehrh. ex J.F.Gmel.:Fr.) Quandt, Kepler &amp; Spatafora</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4716,10 +4716,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>338356.4103134849</v>
+        <v>338285.5070198396</v>
       </c>
       <c r="R35" t="n">
-        <v>6433540.273063039</v>
+        <v>6433442.904015562</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>I våtmarken öster om Angertuvan. Ca 35 m söder om hyggeskanten.</t>
+          <t>Växte vid största stigen som går vid foten av Angertuvans östra sluttning.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4778,11 +4778,6 @@
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>Sumpskog</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4799,10 +4794,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111966065</v>
+        <v>111966228</v>
       </c>
       <c r="B36" t="n">
-        <v>83148</v>
+        <v>89183</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4815,26 +4810,26 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3518</v>
+        <v>3215</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Smal svampklubba</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Tolypocladium ophioglossoides</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ehrh. ex J.F.Gmel.:Fr.) Quandt, Kepler &amp; Spatafora</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4850,10 +4845,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>338285.5070198396</v>
+        <v>338356.4103134849</v>
       </c>
       <c r="R36" t="n">
-        <v>6433442.904015562</v>
+        <v>6433540.273063039</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4900,7 +4895,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Växte vid största stigen som går vid foten av Angertuvans östra sluttning.</t>
+          <t>I våtmarken öster om Angertuvan. Ca 35 m söder om hyggeskanten.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4913,6 +4908,11 @@
       <c r="AG36" t="b">
         <v>0</v>
       </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>Sumpskog</t>
+        </is>
+      </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
@@ -4925,6 +4925,1410 @@
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>112118051</v>
+      </c>
+      <c r="B37" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Angertuvan, öster om, Vg</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>338499.1188164483</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6433534.490804013</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Ale</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Västergötland</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Skepplanda</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>3+4 f k några meter ifrån varandra - 2 mycel?</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>112118103</v>
+      </c>
+      <c r="B38" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Angertuvan, öster om, Vg</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>338374.6658049851</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6433505.588431736</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Ale</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Västergötland</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Skepplanda</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>112118111</v>
+      </c>
+      <c r="B39" t="n">
+        <v>89183</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>3215</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Craterellus lutescens</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Angertuvan, öster om, Vg</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>338366.4565155458</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6433512.816204711</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Ale</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Västergötland</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Skepplanda</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>ca antal</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>112118082</v>
+      </c>
+      <c r="B40" t="n">
+        <v>89183</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>3215</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Craterellus lutescens</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Angertuvan, öster om, Vg</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>338493.1104975632</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6433477.982833842</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Ale</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Västergötland</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Skepplanda</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>1 mycel troligen</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>112118112</v>
+      </c>
+      <c r="B41" t="n">
+        <v>89183</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>3215</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Craterellus lutescens</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Angertuvan, öster om, Vg</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>338357.7811304934</v>
+      </c>
+      <c r="R41" t="n">
+        <v>6433521.654035423</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Ale</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Västergötland</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Skepplanda</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>Många, små. I kanten av sumpskog.</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>112118115</v>
+      </c>
+      <c r="B42" t="n">
+        <v>95211</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2606</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Klippfrullania</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Frullania tamarisci</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(L.) Dumort.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Angertuvan, söder om, Vg</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>338264.9079741923</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6433236.348720711</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Ale</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Västergötland</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Skepplanda</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>På klibbal i sumpskog.</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>klibbal</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>Alnus glutinosa</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>Alnus glutinosa</t>
+        </is>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>112118060</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5135</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>105930</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Semanotus undatus</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Angertuvan, öster om, Vg</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>338513.2926211709</v>
+      </c>
+      <c r="R43" t="n">
+        <v>6433530.204112432</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Ale</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Västergötland</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Skepplanda</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>I död gran.</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>112118091</v>
+      </c>
+      <c r="B44" t="n">
+        <v>89183</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>3215</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Craterellus lutescens</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Angertuvan, öster om, Vg</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>338463.0151325153</v>
+      </c>
+      <c r="R44" t="n">
+        <v>6433469.654800113</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Ale</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Västergötland</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Skepplanda</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>Fler än 50 små.</t>
+        </is>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>112118071</v>
+      </c>
+      <c r="B45" t="n">
+        <v>89183</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>3215</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Craterellus lutescens</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Angertuvan, öster om, Vg</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>338521.6570454396</v>
+      </c>
+      <c r="R45" t="n">
+        <v>6433487.434557982</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Ale</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Västergötland</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Skepplanda</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>ca 50 f k- 2-3 mycel(?)</t>
+        </is>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>112118117</v>
+      </c>
+      <c r="B46" t="n">
+        <v>89183</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>3215</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Craterellus lutescens</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Angertuvan, söder om, Vg</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>338295.1066844424</v>
+      </c>
+      <c r="R46" t="n">
+        <v>6433234.063291552</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Ale</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Västergötland</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Skepplanda</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>En mindre fläck.</t>
+        </is>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>112118106</v>
+      </c>
+      <c r="B47" t="n">
+        <v>89183</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>3215</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Craterellus lutescens</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Angertuvan, öster om, Vg</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>338374.6658049851</v>
+      </c>
+      <c r="R47" t="n">
+        <v>6433505.588431736</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Ale</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Västergötland</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Skepplanda</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>drygt 10, små.</t>
+        </is>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 13111-2022.xlsx
+++ b/artfynd/A 13111-2022.xlsx
@@ -4928,10 +4928,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112118051</v>
+        <v>112118082</v>
       </c>
       <c r="B37" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4944,26 +4944,26 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -4979,10 +4979,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>338499.1188164483</v>
+        <v>338493.1104975632</v>
       </c>
       <c r="R37" t="n">
-        <v>6433534.490804013</v>
+        <v>6433477.982833842</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -5029,7 +5029,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>3+4 f k några meter ifrån varandra - 2 mycel?</t>
+          <t>1 mycel troligen</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5057,10 +5057,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112118103</v>
+        <v>112118106</v>
       </c>
       <c r="B38" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5073,26 +5073,26 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5154,6 +5154,11 @@
       <c r="AB38" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>drygt 10, små.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5181,7 +5186,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112118111</v>
+        <v>112118071</v>
       </c>
       <c r="B39" t="n">
         <v>89183</v>
@@ -5216,7 +5221,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5232,10 +5237,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>338366.4565155458</v>
+        <v>338521.6570454396</v>
       </c>
       <c r="R39" t="n">
-        <v>6433512.816204711</v>
+        <v>6433487.434557982</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5282,7 +5287,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>ca antal</t>
+          <t>ca 50 f k- 2-3 mycel(?)</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5310,10 +5315,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112118082</v>
+        <v>112118115</v>
       </c>
       <c r="B40" t="n">
-        <v>89183</v>
+        <v>95211</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5326,45 +5331,38 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3215</v>
+        <v>2606</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Klippfrullania</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Frullania tamarisci</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.) Dumort.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Angertuvan, öster om, Vg</t>
+          <t>Angertuvan, söder om, Vg</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>338493.1104975632</v>
+        <v>338264.9079741923</v>
       </c>
       <c r="R40" t="n">
-        <v>6433477.982833842</v>
+        <v>6433236.348720711</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5411,7 +5409,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>1 mycel troligen</t>
+          <t>På klibbal i sumpskog.</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5423,6 +5421,21 @@
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>klibbal</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>Alnus glutinosa</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>Alnus glutinosa</t>
+        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
@@ -5560,10 +5573,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112118115</v>
+        <v>112118117</v>
       </c>
       <c r="B42" t="n">
-        <v>95211</v>
+        <v>89183</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5576,27 +5589,26 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2606</v>
+        <v>3215</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Klippfrullania</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Frullania tamarisci</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Dumort.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5604,10 +5616,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>338264.9079741923</v>
+        <v>338295.1066844424</v>
       </c>
       <c r="R42" t="n">
-        <v>6433236.348720711</v>
+        <v>6433234.063291552</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5654,7 +5666,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>På klibbal i sumpskog.</t>
+          <t>En mindre fläck.</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5666,21 +5678,6 @@
       <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ42" t="inlineStr">
-        <is>
-          <t>klibbal</t>
-        </is>
-      </c>
-      <c r="AK42" t="inlineStr">
-        <is>
-          <t>Alnus glutinosa</t>
-        </is>
-      </c>
-      <c r="AO42" t="inlineStr">
-        <is>
-          <t>Alnus glutinosa</t>
-        </is>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
@@ -5697,10 +5694,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112118060</v>
+        <v>112118111</v>
       </c>
       <c r="B43" t="n">
-        <v>5135</v>
+        <v>89183</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5713,32 +5710,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>105930</v>
+        <v>3215</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -5746,10 +5745,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>338513.2926211709</v>
+        <v>338366.4565155458</v>
       </c>
       <c r="R43" t="n">
-        <v>6433530.204112432</v>
+        <v>6433512.816204711</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -5796,7 +5795,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>I död gran.</t>
+          <t>ca antal</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5953,10 +5952,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112118071</v>
+        <v>112118051</v>
       </c>
       <c r="B45" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5969,26 +5968,26 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6004,10 +6003,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>338521.6570454396</v>
+        <v>338499.1188164483</v>
       </c>
       <c r="R45" t="n">
-        <v>6433487.434557982</v>
+        <v>6433534.490804013</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -6054,7 +6053,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>ca 50 f k- 2-3 mycel(?)</t>
+          <t>3+4 f k några meter ifrån varandra - 2 mycel?</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6082,10 +6081,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112118117</v>
+        <v>112118103</v>
       </c>
       <c r="B46" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6098,37 +6097,45 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Angertuvan, söder om, Vg</t>
+          <t>Angertuvan, öster om, Vg</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>338295.1066844424</v>
+        <v>338374.6658049851</v>
       </c>
       <c r="R46" t="n">
-        <v>6433234.063291552</v>
+        <v>6433505.588431736</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -6171,11 +6178,6 @@
       <c r="AB46" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>En mindre fläck.</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6203,10 +6205,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112118106</v>
+        <v>112118060</v>
       </c>
       <c r="B47" t="n">
-        <v>89183</v>
+        <v>5135</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6219,34 +6221,32 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3215</v>
+        <v>105930</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -6254,10 +6254,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>338374.6658049851</v>
+        <v>338513.2926211709</v>
       </c>
       <c r="R47" t="n">
-        <v>6433505.588431736</v>
+        <v>6433530.204112432</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -6304,7 +6304,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>drygt 10, små.</t>
+          <t>I död gran.</t>
         </is>
       </c>
       <c r="AD47" t="b">

--- a/artfynd/A 13111-2022.xlsx
+++ b/artfynd/A 13111-2022.xlsx
@@ -4665,10 +4665,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111966065</v>
+        <v>111966228</v>
       </c>
       <c r="B35" t="n">
-        <v>83148</v>
+        <v>89183</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4681,26 +4681,26 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3518</v>
+        <v>3215</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Smal svampklubba</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Tolypocladium ophioglossoides</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ehrh. ex J.F.Gmel.:Fr.) Quandt, Kepler &amp; Spatafora</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4716,10 +4716,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>338285.5070198396</v>
+        <v>338356</v>
       </c>
       <c r="R35" t="n">
-        <v>6433442.904015562</v>
+        <v>6433540</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4749,24 +4749,14 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Växte vid största stigen som går vid foten av Angertuvans östra sluttning.</t>
+          <t>I våtmarken öster om Angertuvan. Ca 35 m söder om hyggeskanten.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4778,6 +4768,11 @@
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>Sumpskog</t>
+        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4794,10 +4789,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111966228</v>
+        <v>111966065</v>
       </c>
       <c r="B36" t="n">
-        <v>89183</v>
+        <v>83148</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4810,26 +4805,26 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3215</v>
+        <v>3518</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Smal svampklubba</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Tolypocladium ophioglossoides</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Ehrh. ex J.F.Gmel.:Fr.) Quandt, Kepler &amp; Spatafora</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4845,10 +4840,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>338356.4103134849</v>
+        <v>338286</v>
       </c>
       <c r="R36" t="n">
-        <v>6433540.273063039</v>
+        <v>6433443</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4878,24 +4873,14 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>I våtmarken öster om Angertuvan. Ca 35 m söder om hyggeskanten.</t>
+          <t>Växte vid största stigen som går vid foten av Angertuvans östra sluttning.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4907,11 +4892,6 @@
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>Sumpskog</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4928,7 +4908,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112118082</v>
+        <v>112118071</v>
       </c>
       <c r="B37" t="n">
         <v>89183</v>
@@ -4963,7 +4943,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -4979,10 +4959,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>338493.1104975632</v>
+        <v>338522</v>
       </c>
       <c r="R37" t="n">
-        <v>6433477.982833842</v>
+        <v>6433487</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -5012,24 +4992,14 @@
           <t>2023-09-02</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-02</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>1 mycel troligen</t>
+          <t>ca 50 f k- 2-3 mycel(?)</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5057,7 +5027,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112118106</v>
+        <v>112118091</v>
       </c>
       <c r="B38" t="n">
         <v>89183</v>
@@ -5092,7 +5062,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5108,10 +5078,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>338374.6658049851</v>
+        <v>338463</v>
       </c>
       <c r="R38" t="n">
-        <v>6433505.588431736</v>
+        <v>6433470</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -5141,24 +5111,14 @@
           <t>2023-09-02</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-02</t>
         </is>
       </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>drygt 10, små.</t>
+          <t>Fler än 50 små.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5186,10 +5146,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112118071</v>
+        <v>112118103</v>
       </c>
       <c r="B39" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5202,26 +5162,26 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5237,10 +5197,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>338521.6570454396</v>
+        <v>338375</v>
       </c>
       <c r="R39" t="n">
-        <v>6433487.434557982</v>
+        <v>6433506</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5270,24 +5230,9 @@
           <t>2023-09-02</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-09-02</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>ca 50 f k- 2-3 mycel(?)</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5315,10 +5260,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112118115</v>
+        <v>112118060</v>
       </c>
       <c r="B40" t="n">
-        <v>95211</v>
+        <v>5135</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5331,38 +5276,43 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2606</v>
+        <v>105930</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Klippfrullania</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Frullania tamarisci</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Dumort.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Angertuvan, söder om, Vg</t>
+          <t>Angertuvan, öster om, Vg</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>338264.9079741923</v>
+        <v>338513</v>
       </c>
       <c r="R40" t="n">
-        <v>6433236.348720711</v>
+        <v>6433530</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5392,24 +5342,14 @@
           <t>2023-09-02</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-09-02</t>
         </is>
       </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>På klibbal i sumpskog.</t>
+          <t>I död gran.</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5421,21 +5361,6 @@
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>klibbal</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>Alnus glutinosa</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>Alnus glutinosa</t>
-        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
@@ -5452,10 +5377,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112118112</v>
+        <v>112118115</v>
       </c>
       <c r="B41" t="n">
-        <v>89183</v>
+        <v>95211</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5468,37 +5393,38 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3215</v>
+        <v>2606</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Klippfrullania</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Frullania tamarisci</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) Dumort.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Angertuvan, öster om, Vg</t>
+          <t>Angertuvan, söder om, Vg</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>338357.7811304934</v>
+        <v>338265</v>
       </c>
       <c r="R41" t="n">
-        <v>6433521.654035423</v>
+        <v>6433236</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5528,24 +5454,14 @@
           <t>2023-09-02</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>2023-09-02</t>
         </is>
       </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Många, små. I kanten av sumpskog.</t>
+          <t>På klibbal i sumpskog.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5557,6 +5473,21 @@
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>klibbal</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>Alnus glutinosa</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>Alnus glutinosa</t>
+        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
@@ -5573,10 +5504,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112118117</v>
+        <v>112118051</v>
       </c>
       <c r="B42" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5589,37 +5520,45 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Angertuvan, söder om, Vg</t>
+          <t>Angertuvan, öster om, Vg</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>338295.1066844424</v>
+        <v>338499</v>
       </c>
       <c r="R42" t="n">
-        <v>6433234.063291552</v>
+        <v>6433534</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5649,24 +5588,14 @@
           <t>2023-09-02</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA42" t="inlineStr">
         <is>
           <t>2023-09-02</t>
         </is>
       </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>En mindre fläck.</t>
+          <t>3+4 f k några meter ifrån varandra - 2 mycel?</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5745,10 +5674,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>338366.4565155458</v>
+        <v>338366</v>
       </c>
       <c r="R43" t="n">
-        <v>6433512.816204711</v>
+        <v>6433513</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -5778,19 +5707,9 @@
           <t>2023-09-02</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA43" t="inlineStr">
         <is>
           <t>2023-09-02</t>
-        </is>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
@@ -5823,7 +5742,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112118091</v>
+        <v>112118117</v>
       </c>
       <c r="B44" t="n">
         <v>89183</v>
@@ -5856,28 +5775,20 @@
           <t>(Fr.) Fr.</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Angertuvan, öster om, Vg</t>
+          <t>Angertuvan, söder om, Vg</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>338463.0151325153</v>
+        <v>338295</v>
       </c>
       <c r="R44" t="n">
-        <v>6433469.654800113</v>
+        <v>6433234</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5907,24 +5818,14 @@
           <t>2023-09-02</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA44" t="inlineStr">
         <is>
           <t>2023-09-02</t>
         </is>
       </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>Fler än 50 små.</t>
+          <t>En mindre fläck.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5952,10 +5853,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112118051</v>
+        <v>112118082</v>
       </c>
       <c r="B45" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5968,26 +5869,26 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6003,10 +5904,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>338499.1188164483</v>
+        <v>338493</v>
       </c>
       <c r="R45" t="n">
-        <v>6433534.490804013</v>
+        <v>6433478</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -6036,24 +5937,14 @@
           <t>2023-09-02</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA45" t="inlineStr">
         <is>
           <t>2023-09-02</t>
         </is>
       </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>3+4 f k några meter ifrån varandra - 2 mycel?</t>
+          <t>1 mycel troligen</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6081,10 +5972,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112118103</v>
+        <v>112118106</v>
       </c>
       <c r="B46" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6097,26 +5988,26 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -6132,10 +6023,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>338374.6658049851</v>
+        <v>338375</v>
       </c>
       <c r="R46" t="n">
-        <v>6433505.588431736</v>
+        <v>6433506</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -6165,19 +6056,14 @@
           <t>2023-09-02</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA46" t="inlineStr">
         <is>
           <t>2023-09-02</t>
         </is>
       </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>drygt 10, små.</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6205,10 +6091,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112118060</v>
+        <v>112118112</v>
       </c>
       <c r="B47" t="n">
-        <v>5135</v>
+        <v>89183</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6221,32 +6107,26 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>105930</v>
+        <v>3215</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -6254,10 +6134,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>338513.2926211709</v>
+        <v>338358</v>
       </c>
       <c r="R47" t="n">
-        <v>6433530.204112432</v>
+        <v>6433522</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -6287,24 +6167,14 @@
           <t>2023-09-02</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-09-02</t>
         </is>
       </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>I död gran.</t>
+          <t>Många, små. I kanten av sumpskog.</t>
         </is>
       </c>
       <c r="AD47" t="b">

--- a/artfynd/A 13111-2022.xlsx
+++ b/artfynd/A 13111-2022.xlsx
@@ -4668,7 +4668,7 @@
         <v>111966228</v>
       </c>
       <c r="B35" t="n">
-        <v>89183</v>
+        <v>89317</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>111966065</v>
       </c>
       <c r="B36" t="n">
-        <v>83148</v>
+        <v>83271</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4908,10 +4908,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112118071</v>
+        <v>112118051</v>
       </c>
       <c r="B37" t="n">
-        <v>89183</v>
+        <v>90466</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4924,26 +4924,26 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -4959,10 +4959,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>338522</v>
+        <v>338499</v>
       </c>
       <c r="R37" t="n">
-        <v>6433487</v>
+        <v>6433534</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>ca 50 f k- 2-3 mycel(?)</t>
+          <t>3+4 f k några meter ifrån varandra - 2 mycel?</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5027,10 +5027,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112118091</v>
+        <v>112118115</v>
       </c>
       <c r="B38" t="n">
-        <v>89183</v>
+        <v>95366</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5043,45 +5043,38 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3215</v>
+        <v>2606</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Klippfrullania</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Frullania tamarisci</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.) Dumort.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Angertuvan, öster om, Vg</t>
+          <t>Angertuvan, söder om, Vg</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>338463</v>
+        <v>338265</v>
       </c>
       <c r="R38" t="n">
-        <v>6433470</v>
+        <v>6433236</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -5118,7 +5111,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Fler än 50 små.</t>
+          <t>På klibbal i sumpskog.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5130,6 +5123,21 @@
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>klibbal</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Alnus glutinosa</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>Alnus glutinosa</t>
+        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
@@ -5146,10 +5154,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112118103</v>
+        <v>112118112</v>
       </c>
       <c r="B39" t="n">
-        <v>90332</v>
+        <v>89317</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5162,33 +5170,25 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
@@ -5197,10 +5197,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>338375</v>
+        <v>338358</v>
       </c>
       <c r="R39" t="n">
-        <v>6433506</v>
+        <v>6433522</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5233,6 +5233,11 @@
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Många, små. I kanten av sumpskog.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5260,10 +5265,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112118060</v>
+        <v>112118117</v>
       </c>
       <c r="B40" t="n">
-        <v>5135</v>
+        <v>89317</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5276,43 +5281,37 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>105930</v>
+        <v>3215</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Angertuvan, öster om, Vg</t>
+          <t>Angertuvan, söder om, Vg</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>338513</v>
+        <v>338295</v>
       </c>
       <c r="R40" t="n">
-        <v>6433530</v>
+        <v>6433234</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5349,7 +5348,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>I död gran.</t>
+          <t>En mindre fläck.</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5377,10 +5376,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112118115</v>
+        <v>112118111</v>
       </c>
       <c r="B41" t="n">
-        <v>95211</v>
+        <v>89317</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5393,38 +5392,45 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2606</v>
+        <v>3215</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Klippfrullania</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Frullania tamarisci</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) Dumort.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Angertuvan, söder om, Vg</t>
+          <t>Angertuvan, öster om, Vg</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>338265</v>
+        <v>338366</v>
       </c>
       <c r="R41" t="n">
-        <v>6433236</v>
+        <v>6433513</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5461,7 +5467,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>På klibbal i sumpskog.</t>
+          <t>ca antal</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5473,21 +5479,6 @@
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>klibbal</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>Alnus glutinosa</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>Alnus glutinosa</t>
-        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
@@ -5504,10 +5495,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112118051</v>
+        <v>112118091</v>
       </c>
       <c r="B42" t="n">
-        <v>90332</v>
+        <v>89317</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5520,26 +5511,26 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5555,10 +5546,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>338499</v>
+        <v>338463</v>
       </c>
       <c r="R42" t="n">
-        <v>6433534</v>
+        <v>6433470</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5595,7 +5586,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>3+4 f k några meter ifrån varandra - 2 mycel?</t>
+          <t>Fler än 50 små.</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5623,10 +5614,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112118111</v>
+        <v>112118106</v>
       </c>
       <c r="B43" t="n">
-        <v>89183</v>
+        <v>89317</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5658,7 +5649,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -5674,10 +5665,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>338366</v>
+        <v>338375</v>
       </c>
       <c r="R43" t="n">
-        <v>6433513</v>
+        <v>6433506</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -5714,7 +5705,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>ca antal</t>
+          <t>drygt 10, små.</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5742,10 +5733,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112118117</v>
+        <v>112118082</v>
       </c>
       <c r="B44" t="n">
-        <v>89183</v>
+        <v>89317</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5775,20 +5766,28 @@
           <t>(Fr.) Fr.</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Angertuvan, söder om, Vg</t>
+          <t>Angertuvan, öster om, Vg</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>338295</v>
+        <v>338493</v>
       </c>
       <c r="R44" t="n">
-        <v>6433234</v>
+        <v>6433478</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5825,7 +5824,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>En mindre fläck.</t>
+          <t>1 mycel troligen</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5853,10 +5852,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112118082</v>
+        <v>112118071</v>
       </c>
       <c r="B45" t="n">
-        <v>89183</v>
+        <v>89317</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5888,7 +5887,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -5904,10 +5903,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>338493</v>
+        <v>338522</v>
       </c>
       <c r="R45" t="n">
-        <v>6433478</v>
+        <v>6433487</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5944,7 +5943,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>1 mycel troligen</t>
+          <t>ca 50 f k- 2-3 mycel(?)</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5972,10 +5971,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112118106</v>
+        <v>112118060</v>
       </c>
       <c r="B46" t="n">
-        <v>89183</v>
+        <v>5135</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5988,34 +5987,32 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3215</v>
+        <v>105930</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
@@ -6023,10 +6020,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>338375</v>
+        <v>338513</v>
       </c>
       <c r="R46" t="n">
-        <v>6433506</v>
+        <v>6433530</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -6063,7 +6060,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>drygt 10, små.</t>
+          <t>I död gran.</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6091,10 +6088,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112118112</v>
+        <v>112118103</v>
       </c>
       <c r="B47" t="n">
-        <v>89183</v>
+        <v>90466</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6107,25 +6104,33 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
@@ -6134,10 +6139,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>338358</v>
+        <v>338375</v>
       </c>
       <c r="R47" t="n">
-        <v>6433522</v>
+        <v>6433506</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -6170,11 +6175,6 @@
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-09-02</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>Många, små. I kanten av sumpskog.</t>
         </is>
       </c>
       <c r="AD47" t="b">

--- a/artfynd/A 13111-2022.xlsx
+++ b/artfynd/A 13111-2022.xlsx
@@ -4665,10 +4665,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111966228</v>
+        <v>111966065</v>
       </c>
       <c r="B35" t="n">
-        <v>89317</v>
+        <v>83285</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4681,26 +4681,26 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3215</v>
+        <v>3518</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Smal svampklubba</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Tolypocladium ophioglossoides</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Ehrh. ex J.F.Gmel.:Fr.) Quandt, Kepler &amp; Spatafora</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4716,10 +4716,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>338356</v>
+        <v>338286</v>
       </c>
       <c r="R35" t="n">
-        <v>6433540</v>
+        <v>6433443</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>I våtmarken öster om Angertuvan. Ca 35 m söder om hyggeskanten.</t>
+          <t>Växte vid största stigen som går vid foten av Angertuvans östra sluttning.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4768,11 +4768,6 @@
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>Sumpskog</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4789,10 +4784,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111966065</v>
+        <v>111966228</v>
       </c>
       <c r="B36" t="n">
-        <v>83271</v>
+        <v>89331</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4805,26 +4800,26 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3518</v>
+        <v>3215</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Smal svampklubba</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Tolypocladium ophioglossoides</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ehrh. ex J.F.Gmel.:Fr.) Quandt, Kepler &amp; Spatafora</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4840,10 +4835,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>338286</v>
+        <v>338356</v>
       </c>
       <c r="R36" t="n">
-        <v>6433443</v>
+        <v>6433540</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4880,7 +4875,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Växte vid största stigen som går vid foten av Angertuvans östra sluttning.</t>
+          <t>I våtmarken öster om Angertuvan. Ca 35 m söder om hyggeskanten.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4892,6 +4887,11 @@
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>Sumpskog</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4908,10 +4908,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112118051</v>
+        <v>112118103</v>
       </c>
       <c r="B37" t="n">
-        <v>90466</v>
+        <v>90480</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -4959,10 +4959,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>338499</v>
+        <v>338375</v>
       </c>
       <c r="R37" t="n">
-        <v>6433534</v>
+        <v>6433506</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4995,11 +4995,6 @@
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-02</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>3+4 f k några meter ifrån varandra - 2 mycel?</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5027,10 +5022,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112118115</v>
+        <v>112118112</v>
       </c>
       <c r="B38" t="n">
-        <v>95366</v>
+        <v>89331</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5043,38 +5038,37 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2606</v>
+        <v>3215</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Klippfrullania</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Frullania tamarisci</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Dumort.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Angertuvan, söder om, Vg</t>
+          <t>Angertuvan, öster om, Vg</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>338265</v>
+        <v>338358</v>
       </c>
       <c r="R38" t="n">
-        <v>6433236</v>
+        <v>6433522</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -5111,7 +5105,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>På klibbal i sumpskog.</t>
+          <t>Många, små. I kanten av sumpskog.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5123,21 +5117,6 @@
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>klibbal</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>Alnus glutinosa</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>Alnus glutinosa</t>
-        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
@@ -5154,10 +5133,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112118112</v>
+        <v>112118115</v>
       </c>
       <c r="B39" t="n">
-        <v>89317</v>
+        <v>95380</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5170,37 +5149,38 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3215</v>
+        <v>2606</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Klippfrullania</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Frullania tamarisci</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) Dumort.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Angertuvan, öster om, Vg</t>
+          <t>Angertuvan, söder om, Vg</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>338358</v>
+        <v>338265</v>
       </c>
       <c r="R39" t="n">
-        <v>6433522</v>
+        <v>6433236</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5237,7 +5217,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>Många, små. I kanten av sumpskog.</t>
+          <t>På klibbal i sumpskog.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5249,6 +5229,21 @@
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>klibbal</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Alnus glutinosa</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Alnus glutinosa</t>
+        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -5265,10 +5260,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112118117</v>
+        <v>112118111</v>
       </c>
       <c r="B40" t="n">
-        <v>89317</v>
+        <v>89331</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5298,20 +5293,28 @@
           <t>(Fr.) Fr.</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Angertuvan, söder om, Vg</t>
+          <t>Angertuvan, öster om, Vg</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>338295</v>
+        <v>338366</v>
       </c>
       <c r="R40" t="n">
-        <v>6433234</v>
+        <v>6433513</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5348,7 +5351,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>En mindre fläck.</t>
+          <t>ca antal</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5376,10 +5379,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112118111</v>
+        <v>112118106</v>
       </c>
       <c r="B41" t="n">
-        <v>89317</v>
+        <v>89331</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5411,7 +5414,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5427,10 +5430,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>338366</v>
+        <v>338375</v>
       </c>
       <c r="R41" t="n">
-        <v>6433513</v>
+        <v>6433506</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5467,7 +5470,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>ca antal</t>
+          <t>drygt 10, små.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5495,10 +5498,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112118091</v>
+        <v>112118060</v>
       </c>
       <c r="B42" t="n">
-        <v>89317</v>
+        <v>5135</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5511,34 +5514,32 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3215</v>
+        <v>105930</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5546,10 +5547,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>338463</v>
+        <v>338513</v>
       </c>
       <c r="R42" t="n">
-        <v>6433470</v>
+        <v>6433530</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>Fler än 50 små.</t>
+          <t>I död gran.</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5614,10 +5615,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112118106</v>
+        <v>112118082</v>
       </c>
       <c r="B43" t="n">
-        <v>89317</v>
+        <v>89331</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5649,7 +5650,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -5665,10 +5666,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>338375</v>
+        <v>338493</v>
       </c>
       <c r="R43" t="n">
-        <v>6433506</v>
+        <v>6433478</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -5705,7 +5706,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>drygt 10, små.</t>
+          <t>1 mycel troligen</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5733,10 +5734,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112118082</v>
+        <v>112118091</v>
       </c>
       <c r="B44" t="n">
-        <v>89317</v>
+        <v>89331</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5768,7 +5769,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5784,10 +5785,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>338493</v>
+        <v>338463</v>
       </c>
       <c r="R44" t="n">
-        <v>6433478</v>
+        <v>6433470</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5824,7 +5825,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>1 mycel troligen</t>
+          <t>Fler än 50 små.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5852,10 +5853,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112118071</v>
+        <v>112118051</v>
       </c>
       <c r="B45" t="n">
-        <v>89317</v>
+        <v>90480</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5868,26 +5869,26 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -5903,10 +5904,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>338522</v>
+        <v>338499</v>
       </c>
       <c r="R45" t="n">
-        <v>6433487</v>
+        <v>6433534</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5943,7 +5944,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>ca 50 f k- 2-3 mycel(?)</t>
+          <t>3+4 f k några meter ifrån varandra - 2 mycel?</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5971,10 +5972,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112118060</v>
+        <v>112118071</v>
       </c>
       <c r="B46" t="n">
-        <v>5135</v>
+        <v>89331</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5987,32 +5988,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>105930</v>
+        <v>3215</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
@@ -6020,10 +6023,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>338513</v>
+        <v>338522</v>
       </c>
       <c r="R46" t="n">
-        <v>6433530</v>
+        <v>6433487</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -6060,7 +6063,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>I död gran.</t>
+          <t>ca 50 f k- 2-3 mycel(?)</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6088,10 +6091,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112118103</v>
+        <v>112118117</v>
       </c>
       <c r="B47" t="n">
-        <v>90466</v>
+        <v>89331</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6104,45 +6107,37 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Angertuvan, öster om, Vg</t>
+          <t>Angertuvan, söder om, Vg</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>338375</v>
+        <v>338295</v>
       </c>
       <c r="R47" t="n">
-        <v>6433506</v>
+        <v>6433234</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -6175,6 +6170,11 @@
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>En mindre fläck.</t>
         </is>
       </c>
       <c r="AD47" t="b">
